--- a/docs/StructureDefinition-nmdp-practitioner-role.xlsx
+++ b/docs/StructureDefinition-nmdp-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-nmdp-practitioner-role.xlsx
+++ b/docs/StructureDefinition-nmdp-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4844,13 +4844,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-nmdp-practitioner-role.xlsx
+++ b/docs/StructureDefinition-nmdp-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
